--- a/template_examples/rna_level1_analysis_template.xlsx
+++ b/template_examples/rna_level1_analysis_template.xlsx
@@ -538,7 +538,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="6" t="inlineStr">
@@ -551,7 +551,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B6" s="5" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
@@ -617,1386 +617,1386 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/rna_level1_analysis_template.xlsx
+++ b/template_examples/rna_level1_analysis_template.xlsx
@@ -531,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -565,7 +565,6 @@
         </is>
       </c>
     </row>
-    <row r="3"/>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
@@ -2015,7 +2014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,6 +2022,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -2100,6 +2100,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
+    <col width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData/>

--- a/template_examples/rna_level1_analysis_template.xlsx
+++ b/template_examples/rna_level1_analysis_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="RNAseq Analysis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RNAseq level 1 Analysis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Excluded Samples" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Legend" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Data Dictionary" sheetId="4" state="visible" r:id="rId5"/>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">#skip</t>
   </si>
   <si>
-    <t xml:space="preserve">RNAseq Runs</t>
+    <t xml:space="preserve">RNAseq level 1 Runs</t>
   </si>
   <si>
     <t xml:space="preserve">#header</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 'RNAseq Runs' of tab 'RNAseq Analysis'</t>
+    <t xml:space="preserve">Section 'RNAseq level 1 Runs' of tab 'RNAseq level 1Analysis'</t>
   </si>
   <si>
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
@@ -454,11 +454,11 @@
   </sheetPr>
   <dimension ref="A1:C2006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10544,10 +10544,10 @@
   <dimension ref="A1:C2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7:B8 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -20606,11 +20606,11 @@
   </sheetPr>
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B8 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -20620,7 +20620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -20729,10 +20729,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>

--- a/template_examples/rna_level1_analysis_template.xlsx
+++ b/template_examples/rna_level1_analysis_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RNAseq level 1 Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -90,7 +90,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">LEGEND</t>
   </si>
   <si>
-    <t xml:space="preserve">Legend for tab 'RNAseq Analysis'</t>
+    <t xml:space="preserve">Legend for tab 'RNAseq level 1 Analysis'</t>
   </si>
   <si>
     <t xml:space="preserve">String</t>
@@ -187,13 +187,13 @@
     <t xml:space="preserve">Trial identifier used by lead organization, ie. Center for Experimental Therapeutics Program (CTEP) ID or Industry Sponsored ID.  This is usually a short identifier. Example: E4412.</t>
   </si>
   <si>
-    <t xml:space="preserve">Section 'RNAseq level 1 Runs' of tab 'RNAseq level 1Analysis'</t>
+    <t xml:space="preserve">Section 'RNAseq level 1 Runs' of tab 'RNAseq level 1 Analysis'</t>
   </si>
   <si>
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -454,11 +454,11 @@
   </sheetPr>
   <dimension ref="A1:C2006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -10544,10 +10544,10 @@
   <dimension ref="A1:C2002"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7:B8 B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -20606,11 +20606,11 @@
   </sheetPr>
   <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -20620,7 +20620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -20644,7 +20644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -20729,10 +20729,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:B8 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
